--- a/xlsx_sorted/AK700换扇重制版.xlsx
+++ b/xlsx_sorted/AK700换扇重制版.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA4"/>
+  <dimension ref="A1:DD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,55 +544,60 @@
       </c>
       <c r="BU1" t="inlineStr">
         <is>
+          <t>A12</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
           <t>LP12E</t>
         </is>
       </c>
-      <c r="BX1" t="inlineStr">
+      <c r="CA1" t="inlineStr">
         <is>
           <t>广镰GT3000</t>
         </is>
       </c>
-      <c r="CA1" t="inlineStr">
+      <c r="CD1" t="inlineStr">
         <is>
           <t>玄冥静V2</t>
         </is>
       </c>
-      <c r="CD1" t="inlineStr">
+      <c r="CG1" t="inlineStr">
         <is>
           <t>FT12</t>
         </is>
       </c>
-      <c r="CG1" t="inlineStr">
+      <c r="CJ1" t="inlineStr">
         <is>
           <t>AT120K</t>
         </is>
       </c>
-      <c r="CJ1" t="inlineStr">
+      <c r="CM1" t="inlineStr">
         <is>
           <t>H12PE</t>
         </is>
       </c>
-      <c r="CM1" t="inlineStr">
+      <c r="CP1" t="inlineStr">
         <is>
           <t>F7 X120</t>
         </is>
       </c>
-      <c r="CP1" t="inlineStr">
+      <c r="CS1" t="inlineStr">
         <is>
           <t>F9 R120</t>
         </is>
       </c>
-      <c r="CS1" t="inlineStr">
+      <c r="CV1" t="inlineStr">
         <is>
           <t>GT3000</t>
         </is>
       </c>
-      <c r="CV1" t="inlineStr">
+      <c r="CY1" t="inlineStr">
         <is>
           <t>雅浚12030</t>
         </is>
       </c>
-      <c r="CY1" t="inlineStr">
+      <c r="DB1" t="inlineStr">
         <is>
           <t>振华巨风</t>
         </is>
@@ -816,102 +821,111 @@
         <v>2696</v>
       </c>
       <c r="BU2" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>2090</v>
+      </c>
+      <c r="BX2" t="n">
         <v>55.2</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BY2" t="n">
         <v>53.1</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BZ2" t="n">
         <v>3015</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CA2" t="n">
         <v>51.7</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CB2" t="n">
         <v>53.90000000000001</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CC2" t="n">
         <v>3011</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CD2" t="n">
         <v>50</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CE2" t="n">
         <v>54.2</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CF2" t="n">
         <v>3120</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CG2" t="n">
         <v>47.4</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CH2" t="n">
         <v>54.8</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CI2" t="n">
         <v>2156</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CJ2" t="n">
         <v>52.3</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CK2" t="n">
         <v>53.9</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CL2" t="n">
         <v>3045</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CM2" t="n">
         <v>57</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CN2" t="n">
         <v>53.00000000000001</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CO2" t="n">
         <v>3300</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CP2" t="n">
         <v>50.9</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CQ2" t="n">
         <v>53.90000000000001</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CR2" t="n">
         <v>3030</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CS2" t="n">
         <v>58</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CT2" t="n">
         <v>52.7</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CU2" t="n">
         <v>3000</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CV2" t="n">
         <v>51.2</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>3002</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>53.2</v>
       </c>
       <c r="CW2" t="n">
         <v>53.8</v>
       </c>
       <c r="CX2" t="n">
+        <v>3002</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="DA2" t="n">
         <v>2986</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DB2" t="n">
         <v>59</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DC2" t="n">
         <v>52.59999999999999</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DD2" t="n">
         <v>3096</v>
       </c>
     </row>
@@ -1133,102 +1147,111 @@
         <v>1820</v>
       </c>
       <c r="BU3" t="n">
+        <v>40</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>57</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1941</v>
+      </c>
+      <c r="BX3" t="n">
         <v>40.3</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BY3" t="n">
         <v>57.1</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BZ3" t="n">
         <v>1697</v>
       </c>
-      <c r="BX3" t="n">
-        <v>40</v>
-      </c>
-      <c r="BY3" t="n">
+      <c r="CA3" t="n">
+        <v>40</v>
+      </c>
+      <c r="CB3" t="n">
         <v>57.2</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CC3" t="n">
         <v>1810</v>
       </c>
-      <c r="CA3" t="n">
-        <v>40</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>2055</v>
-      </c>
       <c r="CD3" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="CE3" t="n">
         <v>57.3</v>
       </c>
       <c r="CF3" t="n">
-        <v>1586</v>
+        <v>2055</v>
       </c>
       <c r="CG3" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="CH3" t="n">
         <v>57.3</v>
       </c>
       <c r="CI3" t="n">
+        <v>1586</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>40</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="CL3" t="n">
         <v>1810</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CM3" t="n">
         <v>50.2</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CN3" t="n">
         <v>54.40000000000001</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CO3" t="n">
         <v>2536</v>
       </c>
-      <c r="CM3" t="n">
-        <v>40</v>
-      </c>
-      <c r="CN3" t="n">
+      <c r="CP3" t="n">
+        <v>40</v>
+      </c>
+      <c r="CQ3" t="n">
         <v>57.40000000000001</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CR3" t="n">
         <v>1955</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CS3" t="n">
         <v>50</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CT3" t="n">
         <v>54.3</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CU3" t="n">
         <v>2245</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CV3" t="n">
         <v>40.9</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CW3" t="n">
         <v>57.5</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="CX3" t="n">
         <v>1775</v>
       </c>
-      <c r="CV3" t="n">
-        <v>40</v>
-      </c>
-      <c r="CW3" t="n">
+      <c r="CY3" t="n">
+        <v>40</v>
+      </c>
+      <c r="CZ3" t="n">
         <v>57.8</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="DA3" t="n">
         <v>1719</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="DB3" t="n">
         <v>50.1</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DC3" t="n">
         <v>54.8</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DD3" t="n">
         <v>2220</v>
       </c>
     </row>
@@ -1296,31 +1319,31 @@
       <c r="BQ4" t="n">
         <v>1731</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CM4" t="n">
         <v>40.1</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CN4" t="n">
         <v>57.3</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CO4" t="n">
         <v>1720</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CS4" t="n">
         <v>39.9</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CT4" t="n">
         <v>57.5</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CU4" t="n">
         <v>1459</v>
       </c>
-      <c r="CY4" t="n">
-        <v>40</v>
-      </c>
-      <c r="CZ4" t="n">
+      <c r="DB4" t="n">
+        <v>40</v>
+      </c>
+      <c r="DC4" t="n">
         <v>57.90000000000001</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DD4" t="n">
         <v>1488</v>
       </c>
     </row>

--- a/xlsx_sorted/AK700换扇重制版.xlsx
+++ b/xlsx_sorted/AK700换扇重制版.xlsx
@@ -539,12 +539,12 @@
       </c>
       <c r="BR1" t="inlineStr">
         <is>
+          <t>A12</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
           <t>F3 S120</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>A12</t>
         </is>
       </c>
       <c r="BX1" t="inlineStr">
@@ -812,22 +812,22 @@
         <v>4008</v>
       </c>
       <c r="BR2" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>56.60000000000001</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>2090</v>
+      </c>
+      <c r="BU2" t="n">
         <v>49.7</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BV2" t="n">
         <v>54.09999999999999</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BW2" t="n">
         <v>2696</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>2090</v>
       </c>
       <c r="BX2" t="n">
         <v>55.2</v>
@@ -1141,19 +1141,19 @@
         <v>40</v>
       </c>
       <c r="BS3" t="n">
+        <v>57</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>1941</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>40</v>
+      </c>
+      <c r="BV3" t="n">
         <v>57.10000000000001</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BW3" t="n">
         <v>1820</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>40</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>57</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>1941</v>
       </c>
       <c r="BX3" t="n">
         <v>40.3</v>
